--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>1.393640519024109</v>
+        <v>1.328558632615739</v>
       </c>
       <c r="C3">
-        <v>0.893730324430364</v>
+        <v>0.4282194198276246</v>
       </c>
       <c r="D3">
-        <v>-1.586614087300087</v>
+        <v>-1.435981453719049</v>
       </c>
       <c r="E3">
         <v>-1.61188520630966</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-1.61188520630966</v>
       </c>
-      <c r="BA3">
-        <v>-1.61188520630966</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>1.387157939616945</v>
+        <v>1.356849765318358</v>
       </c>
       <c r="C4">
-        <v>1.038778101005877</v>
+        <v>0.5762410323606026</v>
       </c>
       <c r="D4">
-        <v>-1.154541243180252</v>
+        <v>-0.7704417043119083</v>
       </c>
       <c r="E4">
-        <v>-0.8256244756900011</v>
+        <v>-0.8235211753995442</v>
       </c>
       <c r="F4">
-        <v>0.5994119800717845</v>
+        <v>0.406633294022174</v>
       </c>
       <c r="G4">
         <v>1.128600547465064</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>1.128600547465064</v>
       </c>
-      <c r="BA4">
-        <v>1.128600547465064</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.9298918095823172</v>
-      </c>
       <c r="D5">
-        <v>-0.8528145600898651</v>
+        <v>-0.6484173407089511</v>
       </c>
       <c r="E5">
-        <v>0.07672950041774929</v>
+        <v>-0.735462857474789</v>
       </c>
       <c r="F5">
-        <v>0.6285896203093611</v>
+        <v>-0.1034614224434405</v>
       </c>
       <c r="G5">
-        <v>1.813262858385434</v>
+        <v>1.121293995080253</v>
       </c>
       <c r="H5">
-        <v>2.397632938760519</v>
+        <v>2.185496833134781</v>
       </c>
       <c r="I5">
         <v>2.397632938760519</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>2.397632938760519</v>
       </c>
-      <c r="BA5">
-        <v>2.397632938760519</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.7578367422968024</v>
-      </c>
       <c r="F6">
-        <v>-0.07198056233270744</v>
+        <v>-0.2218152533720597</v>
       </c>
       <c r="G6">
-        <v>1.568896650732987</v>
+        <v>0.1480821602630744</v>
       </c>
       <c r="H6">
-        <v>1.947682104509618</v>
+        <v>0.6652762968575532</v>
       </c>
       <c r="I6">
-        <v>2.168477229273624</v>
+        <v>1.665250327443002</v>
       </c>
       <c r="J6">
-        <v>0.6997950332806147</v>
+        <v>0.8574941660507873</v>
       </c>
       <c r="K6">
         <v>0.5991205513815823</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>0.5991205513815823</v>
       </c>
-      <c r="BA6">
-        <v>0.5991205513815823</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>1.76962360988282</v>
-      </c>
       <c r="H7">
-        <v>2.104406008906712</v>
+        <v>0.6294804885647043</v>
       </c>
       <c r="I7">
-        <v>2.344973254631366</v>
+        <v>1.617722252039</v>
       </c>
       <c r="J7">
-        <v>1.13510530879426</v>
+        <v>1.693469135756587</v>
       </c>
       <c r="K7">
-        <v>1.08005015963426</v>
+        <v>1.079796209653616</v>
       </c>
       <c r="L7">
-        <v>0.2497225331041353</v>
+        <v>0.1494732105682406</v>
       </c>
       <c r="M7">
         <v>0.5555179840670776</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>0.5555179840670776</v>
       </c>
-      <c r="BA7">
-        <v>0.5555179840670776</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>2.218216641506277</v>
-      </c>
       <c r="J8">
-        <v>1.286157117685804</v>
+        <v>1.77975641852226</v>
       </c>
       <c r="K8">
-        <v>1.588459407092935</v>
+        <v>1.488234279941625</v>
       </c>
       <c r="L8">
-        <v>1.26014547678559</v>
+        <v>0.8024032015999882</v>
       </c>
       <c r="M8">
-        <v>1.876770729193722</v>
+        <v>1.374377011838535</v>
       </c>
       <c r="N8">
-        <v>1.902492721194715</v>
+        <v>1.656936590801972</v>
       </c>
       <c r="O8">
         <v>1.749602965204744</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>1.749602965204744</v>
       </c>
-      <c r="BA8">
-        <v>1.749602965204744</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.084381878514407</v>
-      </c>
       <c r="L9">
-        <v>0.681735966035224</v>
+        <v>0.8024032016000104</v>
       </c>
       <c r="M9">
-        <v>1.746264411392962</v>
+        <v>0.8909614188480353</v>
       </c>
       <c r="N9">
-        <v>2.011967313320406</v>
+        <v>0.922773818606859</v>
       </c>
       <c r="O9">
-        <v>1.817887133274421</v>
+        <v>1.310895847186577</v>
       </c>
       <c r="P9">
-        <v>1.412370212124414</v>
+        <v>1.346932828201242</v>
       </c>
       <c r="Q9">
         <v>1.513781691628258</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>1.513781691628258</v>
       </c>
-      <c r="BA9">
-        <v>1.513781691628258</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.435665155960453</v>
-      </c>
       <c r="N10">
-        <v>1.536777758481001</v>
+        <v>0.8507004532711138</v>
       </c>
       <c r="O10">
-        <v>1.981579511273956</v>
+        <v>1.17312580610518</v>
       </c>
       <c r="P10">
-        <v>1.62965849359813</v>
+        <v>1.364302026343633</v>
       </c>
       <c r="Q10">
-        <v>1.740574921258409</v>
+        <v>1.862478303083726</v>
       </c>
       <c r="R10">
-        <v>1.834894614572802</v>
+        <v>1.745747589686109</v>
       </c>
       <c r="S10">
         <v>1.72540577912379</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>1.72540577912379</v>
       </c>
-      <c r="BA10">
-        <v>1.72540577912379</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.791916787663927</v>
-      </c>
       <c r="P11">
-        <v>1.528685969651367</v>
+        <v>1.342708276326299</v>
       </c>
       <c r="Q11">
-        <v>1.618764723623101</v>
+        <v>1.804078246438934</v>
       </c>
       <c r="R11">
-        <v>1.934407896550039</v>
+        <v>1.644798626926303</v>
       </c>
       <c r="S11">
-        <v>1.807349526896274</v>
+        <v>1.639776099317536</v>
       </c>
       <c r="T11">
-        <v>1.859704669579565</v>
+        <v>1.843649045891893</v>
       </c>
       <c r="U11">
         <v>2.026192376700298</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>2.026192376700298</v>
       </c>
-      <c r="BA11">
-        <v>2.026192376700298</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.633916956537296</v>
-      </c>
       <c r="R12">
-        <v>1.81820416228391</v>
+        <v>1.609625625599986</v>
       </c>
       <c r="S12">
-        <v>1.872773496615676</v>
+        <v>1.601529483008668</v>
       </c>
       <c r="T12">
-        <v>1.747218465300882</v>
+        <v>1.741128155516525</v>
       </c>
       <c r="U12">
-        <v>2.115367468044549</v>
+        <v>2.181728312936415</v>
       </c>
       <c r="V12">
-        <v>2.523623631786731</v>
+        <v>2.284406789710336</v>
       </c>
       <c r="W12">
-        <v>2.518198850986875</v>
+        <v>2.463589365374652</v>
       </c>
       <c r="X12">
-        <v>2.31852959217409</v>
+        <v>2.349806433215029</v>
       </c>
       <c r="Y12">
         <v>2.344166347125687</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>2.344166347125687</v>
       </c>
-      <c r="BA12">
-        <v>2.344166347125687</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.83489215249053</v>
-      </c>
-      <c r="S13">
-        <v>1.771650111080936</v>
-      </c>
       <c r="T13">
-        <v>1.668738020068972</v>
+        <v>1.723022434657207</v>
       </c>
       <c r="U13">
-        <v>1.89462168814607</v>
+        <v>1.99880983009828</v>
       </c>
       <c r="V13">
-        <v>2.242637431381778</v>
+        <v>1.990690441067144</v>
       </c>
       <c r="W13">
-        <v>2.237053039764336</v>
+        <v>2.149194501693219</v>
       </c>
       <c r="X13">
-        <v>1.811228693949229</v>
+        <v>2.036910005299108</v>
       </c>
       <c r="Y13">
-        <v>1.988586823028471</v>
+        <v>2.010025322622599</v>
       </c>
       <c r="Z13">
-        <v>1.482188835478793</v>
+        <v>1.665971362160357</v>
       </c>
       <c r="AA13">
-        <v>1.216415718128294</v>
+        <v>1.332860091726285</v>
       </c>
       <c r="AB13">
-        <v>1.001446656562432</v>
+        <v>1.029194292875912</v>
       </c>
       <c r="AC13">
         <v>0.9005461608770915</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>0.9005461608770915</v>
       </c>
-      <c r="BA13">
-        <v>0.9005461608770915</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.766786559049405</v>
-      </c>
-      <c r="U14">
-        <v>2.031292234149684</v>
-      </c>
-      <c r="V14">
-        <v>2.114474177862324</v>
-      </c>
       <c r="W14">
-        <v>2.141810136636835</v>
+        <v>2.104406008906734</v>
       </c>
       <c r="X14">
-        <v>1.928797312366859</v>
+        <v>2.104406008906734</v>
       </c>
       <c r="Y14">
-        <v>1.531580598895577</v>
+        <v>2.088155108730527</v>
       </c>
       <c r="Z14">
-        <v>1.280779462225867</v>
+        <v>2.031292234149706</v>
       </c>
       <c r="AA14">
-        <v>1.319239871711941</v>
+        <v>1.799885362733189</v>
       </c>
       <c r="AB14">
-        <v>0.9535061289851043</v>
+        <v>1.31420459445093</v>
       </c>
       <c r="AC14">
-        <v>0.4500589383543696</v>
+        <v>0.7771393814490102</v>
       </c>
       <c r="AD14">
-        <v>0.3880736212224845</v>
+        <v>0.4126128934655471</v>
       </c>
       <c r="AE14">
-        <v>-1.71906045117115</v>
+        <v>0.2336391425753925</v>
       </c>
       <c r="AF14">
-        <v>-4.378957680654993</v>
+        <v>-4.43626840667447</v>
       </c>
       <c r="AG14">
         <v>-4.43626840667447</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-4.43626840667447</v>
       </c>
-      <c r="BA14">
-        <v>-4.43626840667447</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>2.279225746754587</v>
-      </c>
-      <c r="W15">
-        <v>2.284921322996314</v>
-      </c>
-      <c r="X15">
-        <v>1.993532172086332</v>
-      </c>
-      <c r="Y15">
-        <v>1.364536743052835</v>
-      </c>
-      <c r="Z15">
-        <v>1.250939458317113</v>
-      </c>
       <c r="AA15">
-        <v>1.361769710437022</v>
+        <v>1.893295577996756</v>
       </c>
       <c r="AB15">
-        <v>1.129570113515066</v>
+        <v>1.650113596657588</v>
       </c>
       <c r="AC15">
-        <v>1.378427133278715</v>
+        <v>1.407367165006201</v>
       </c>
       <c r="AD15">
-        <v>1.395149944926244</v>
+        <v>1.156986202028509</v>
       </c>
       <c r="AE15">
-        <v>2.624910644707001</v>
+        <v>0.9207450904090253</v>
       </c>
       <c r="AF15">
-        <v>4.711619913745535</v>
+        <v>-2.63419394755392</v>
       </c>
       <c r="AG15">
-        <v>2.678040396387193</v>
+        <v>-2.71887004062904</v>
       </c>
       <c r="AH15">
-        <v>-0.1114187992928839</v>
+        <v>-2.96879819115512</v>
       </c>
       <c r="AI15">
-        <v>-1.065841615027951</v>
+        <v>-2.010709456685855</v>
       </c>
       <c r="AJ15">
-        <v>-1.010673730825384</v>
+        <v>-1.513408827666285</v>
       </c>
       <c r="AK15">
         <v>-1.513408827666285</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-1.513408827666285</v>
       </c>
-      <c r="BA15">
-        <v>-1.513408827666285</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.629058341954503</v>
-      </c>
-      <c r="Z16">
-        <v>1.326548386659243</v>
-      </c>
-      <c r="AA16">
-        <v>1.286157117685782</v>
-      </c>
-      <c r="AB16">
-        <v>1.003756253906229</v>
-      </c>
-      <c r="AC16">
-        <v>1.282232515899917</v>
-      </c>
-      <c r="AD16">
-        <v>1.336073628356704</v>
-      </c>
       <c r="AE16">
-        <v>1.884117322788925</v>
+        <v>0.9554040357173665</v>
       </c>
       <c r="AF16">
-        <v>2.342733022908527</v>
+        <v>-1.6615457433243</v>
       </c>
       <c r="AG16">
-        <v>2.114743464023872</v>
+        <v>-1.937757788996253</v>
       </c>
       <c r="AH16">
-        <v>3.269917916101805</v>
+        <v>-2.438555173006141</v>
       </c>
       <c r="AI16">
-        <v>3.829077445426443</v>
+        <v>-1.14257141002756</v>
       </c>
       <c r="AJ16">
-        <v>5.41299470703982</v>
+        <v>0.7106578563214505</v>
       </c>
       <c r="AK16">
-        <v>5.01418218718106</v>
+        <v>0.4582698374457683</v>
       </c>
       <c r="AL16">
-        <v>2.690143847143123</v>
+        <v>1.154413086110817</v>
       </c>
       <c r="AM16">
-        <v>2.200566026798723</v>
+        <v>1.5286818008164</v>
       </c>
       <c r="AN16">
-        <v>1.906776630685214</v>
+        <v>1.618732201786743</v>
       </c>
       <c r="AO16">
         <v>1.618732201786743</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>1.618732201786743</v>
       </c>
-      <c r="BA16">
-        <v>1.618732201786743</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.081559166782142</v>
-      </c>
-      <c r="AD17">
-        <v>1.084381878514473</v>
-      </c>
-      <c r="AE17">
-        <v>1.005413259478893</v>
-      </c>
-      <c r="AF17">
-        <v>1.237703536243973</v>
-      </c>
-      <c r="AG17">
-        <v>3.123015604890411</v>
-      </c>
       <c r="AH17">
-        <v>2.995696804166115</v>
+        <v>-2.413633125962611</v>
       </c>
       <c r="AI17">
-        <v>2.952505166885011</v>
+        <v>-1.976964192800379</v>
       </c>
       <c r="AJ17">
-        <v>3.2002886630486</v>
+        <v>-1.416208084524317</v>
       </c>
       <c r="AK17">
-        <v>2.404638348775623</v>
+        <v>-1.590220060268321</v>
       </c>
       <c r="AL17">
-        <v>3.945188541354372</v>
+        <v>-1.166698219025086</v>
       </c>
       <c r="AM17">
-        <v>3.751396336682911</v>
+        <v>-0.7118141543333012</v>
       </c>
       <c r="AN17">
-        <v>3.996132459072443</v>
+        <v>-0.4630595634534385</v>
       </c>
       <c r="AO17">
-        <v>-0.0257499723208543</v>
+        <v>1.314675624401973</v>
       </c>
       <c r="AP17">
-        <v>-0.07579018556103101</v>
+        <v>0.006126408955742235</v>
       </c>
       <c r="AQ17">
-        <v>0.03476567089377713</v>
+        <v>0.001079933351455509</v>
       </c>
       <c r="AR17">
-        <v>-0.006131358757832661</v>
+        <v>-0.09609276733164585</v>
       </c>
       <c r="AS17">
         <v>-0.09609276733164585</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-0.09609276733164585</v>
       </c>
-      <c r="BA17">
-        <v>-0.09609276733164585</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>5.730089342465727</v>
-      </c>
-      <c r="AH18">
-        <v>5.091678478732731</v>
-      </c>
-      <c r="AI18">
-        <v>4.926694793540509</v>
-      </c>
-      <c r="AJ18">
-        <v>5.595694393458106</v>
-      </c>
-      <c r="AK18">
-        <v>1.737673846938304</v>
-      </c>
       <c r="AL18">
-        <v>1.847653103475877</v>
+        <v>-1.366617752737886</v>
       </c>
       <c r="AM18">
-        <v>2.385432622452077</v>
+        <v>-1.247796181364325</v>
       </c>
       <c r="AN18">
-        <v>2.685030736014293</v>
+        <v>-1.271569079498103</v>
       </c>
       <c r="AO18">
-        <v>1.480526143774319</v>
+        <v>3.40905661301254</v>
       </c>
       <c r="AP18">
-        <v>1.432297689379536</v>
+        <v>0.5370151562237302</v>
       </c>
       <c r="AQ18">
-        <v>1.5721616075697</v>
+        <v>0.6889047703476203</v>
       </c>
       <c r="AR18">
-        <v>1.257115842174117</v>
+        <v>0.5285660612534882</v>
       </c>
       <c r="AS18">
-        <v>0.9632741816949952</v>
+        <v>0.1199358335146838</v>
       </c>
       <c r="AT18">
-        <v>0.4484143214516623</v>
+        <v>-0.1634698065940632</v>
       </c>
       <c r="AU18">
-        <v>0.09018476422182342</v>
+        <v>-0.00209793826797533</v>
       </c>
       <c r="AV18">
-        <v>0.09179388078603967</v>
+        <v>-0.02761034355766023</v>
       </c>
       <c r="AW18">
         <v>-0.02761034355766023</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-0.02761034355766023</v>
       </c>
-      <c r="BA18">
-        <v>-0.02761034355766023</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>3.148505770749477</v>
-      </c>
-      <c r="AL19">
-        <v>2.927602636130033</v>
-      </c>
-      <c r="AM19">
-        <v>2.870966869659708</v>
-      </c>
-      <c r="AN19">
-        <v>2.957492834889242</v>
-      </c>
-      <c r="AO19">
-        <v>1.464639488767805</v>
-      </c>
       <c r="AP19">
-        <v>1.03179089230554</v>
+        <v>0.6286476167952193</v>
       </c>
       <c r="AQ19">
-        <v>1.109012610170379</v>
+        <v>0.8380511040219529</v>
       </c>
       <c r="AR19">
-        <v>1.219279095154957</v>
+        <v>1.051341880573431</v>
       </c>
       <c r="AS19">
-        <v>1.598684321561628</v>
+        <v>0.541919990776929</v>
       </c>
       <c r="AT19">
-        <v>1.561466521228816</v>
+        <v>-0.1145111565623136</v>
       </c>
       <c r="AU19">
-        <v>1.596765107383735</v>
+        <v>0.286657616500996</v>
       </c>
       <c r="AV19">
-        <v>1.580446709939154</v>
+        <v>0.08174908622293753</v>
       </c>
       <c r="AW19">
-        <v>0.842782598119185</v>
+        <v>0.2676745853112728</v>
       </c>
       <c r="AX19">
-        <v>0.5405494419323364</v>
+        <v>0.4725905789402463</v>
       </c>
       <c r="AY19">
-        <v>0.6051432752119057</v>
+        <v>0.501314651583451</v>
       </c>
       <c r="AZ19">
-        <v>0.5151080441973876</v>
-      </c>
-      <c r="BA19">
         <v>0.5152269879013183</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>0.9110964214884554</v>
-      </c>
-      <c r="AP20">
-        <v>0.726870934438284</v>
-      </c>
-      <c r="AQ20">
-        <v>0.8404894806308238</v>
-      </c>
-      <c r="AR20">
-        <v>0.7552375146388846</v>
-      </c>
-      <c r="AS20">
-        <v>1.033201938723183</v>
-      </c>
       <c r="AT20">
-        <v>1.012821980642986</v>
+        <v>-0.1001442164906607</v>
       </c>
       <c r="AU20">
-        <v>1.167737810793557</v>
+        <v>0.2192992773568214</v>
       </c>
       <c r="AV20">
-        <v>1.200667538273659</v>
+        <v>0.01413548204556303</v>
       </c>
       <c r="AW20">
-        <v>1.371270397310065</v>
+        <v>-0.05216314813395462</v>
       </c>
       <c r="AX20">
-        <v>0.5046545459032048</v>
+        <v>0.08564335928031852</v>
       </c>
       <c r="AY20">
-        <v>0.5955127736224863</v>
+        <v>0.2155158706220295</v>
       </c>
       <c r="AZ20">
-        <v>0.9526646531309746</v>
-      </c>
-      <c r="BA20">
-        <v>0.9237678276839301</v>
+        <v>0.3332251551730891</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>1.232140376417434</v>
-      </c>
-      <c r="AT21">
-        <v>1.032292950577385</v>
-      </c>
-      <c r="AU21">
-        <v>0.973168265831803</v>
-      </c>
-      <c r="AV21">
-        <v>0.9794742110402099</v>
-      </c>
-      <c r="AW21">
-        <v>0.9960708608923508</v>
-      </c>
       <c r="AX21">
-        <v>0.5249334696964425</v>
+        <v>0.02760436504196662</v>
       </c>
       <c r="AY21">
-        <v>0.5367189659372329</v>
+        <v>0.1625720590646029</v>
       </c>
       <c r="AZ21">
-        <v>1.440967251463499</v>
-      </c>
-      <c r="BA21">
-        <v>1.525725899530639</v>
+        <v>0.2843066506847514</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.074492184293518</v>
-      </c>
-      <c r="AX22">
-        <v>0.5042572475285834</v>
-      </c>
-      <c r="AY22">
-        <v>0.5624214984027542</v>
-      </c>
-      <c r="AZ22">
-        <v>0.9693733069071619</v>
-      </c>
-      <c r="BA22">
-        <v>1.274234578627698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.274284412479743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-1.538034740964334</v>
       </c>
       <c r="AG17">
-        <v>-4.65090747647452</v>
+        <v>-6.356537224117487</v>
       </c>
       <c r="AH17">
         <v>-4.207901339433196</v>
@@ -2451,19 +2451,19 @@
         <v>-0.7351085756681308</v>
       </c>
       <c r="AG18">
-        <v>-1.895157449498863</v>
+        <v>-8.821046965146561</v>
       </c>
       <c r="AH18">
-        <v>-0.4850133725290084</v>
+        <v>-0.1895486537906499</v>
       </c>
       <c r="AI18">
-        <v>0.003696830084365388</v>
+        <v>0.4146413258694137</v>
       </c>
       <c r="AJ18">
-        <v>0.303920243687994</v>
+        <v>-0.5490727792360373</v>
       </c>
       <c r="AK18">
-        <v>0.7583924418458787</v>
+        <v>0.3172339686200898</v>
       </c>
       <c r="AL18">
         <v>1.099928004397532</v>
@@ -2522,31 +2522,31 @@
         <v>-0.1884467642776499</v>
       </c>
       <c r="AG19">
-        <v>-1.622080300714668</v>
+        <v>-4.168437672387615</v>
       </c>
       <c r="AH19">
-        <v>-1.197291607130502</v>
+        <v>-0.8852951857696523</v>
       </c>
       <c r="AI19">
-        <v>-1.242205446257827</v>
+        <v>-0.8956136585516083</v>
       </c>
       <c r="AJ19">
-        <v>-0.6038293380915438</v>
+        <v>-1.780432496308937</v>
       </c>
       <c r="AK19">
-        <v>1.108416787477773</v>
+        <v>-0.4546530185646103</v>
       </c>
       <c r="AL19">
-        <v>1.102608990163567</v>
+        <v>1.64129126057011</v>
       </c>
       <c r="AM19">
-        <v>1.880148611648913</v>
+        <v>1.479361440497251</v>
       </c>
       <c r="AN19">
-        <v>1.91914784107321</v>
+        <v>1.6875728718037</v>
       </c>
       <c r="AO19">
-        <v>2.236860175919531</v>
+        <v>2.23409361759197</v>
       </c>
       <c r="AP19">
         <v>2.310042359896225</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-1.136273710871183</v>
-      </c>
       <c r="AJ20">
-        <v>-0.9782180082695158</v>
+        <v>-1.415605394723229</v>
       </c>
       <c r="AK20">
-        <v>-0.5219388886959053</v>
+        <v>-0.9277185264433219</v>
       </c>
       <c r="AL20">
-        <v>-0.3796908173308133</v>
+        <v>-0.2440090421604091</v>
       </c>
       <c r="AM20">
-        <v>0.01066574587431646</v>
+        <v>-0.1782045183430392</v>
       </c>
       <c r="AN20">
-        <v>0.2384815980940092</v>
+        <v>-0.1326041962933178</v>
       </c>
       <c r="AO20">
-        <v>0.8831516962375607</v>
+        <v>0.3633393911697702</v>
       </c>
       <c r="AP20">
-        <v>2.086256540666986</v>
+        <v>1.217841308475065</v>
       </c>
       <c r="AQ20">
-        <v>0.2425620590337463</v>
+        <v>1.98325800102106</v>
       </c>
       <c r="AR20">
-        <v>-0.1211988132392205</v>
+        <v>-0.0288046953595078</v>
       </c>
       <c r="AS20">
-        <v>-0.09588622947416248</v>
+        <v>0.01348861154684133</v>
       </c>
       <c r="AT20">
         <v>0.0464415346324687</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-0.112162303990393</v>
-      </c>
       <c r="AN21">
-        <v>-0.0121623373299129</v>
+        <v>-0.204006635934928</v>
       </c>
       <c r="AO21">
-        <v>0.9342146419167641</v>
+        <v>0.1168661914763502</v>
       </c>
       <c r="AP21">
-        <v>4.911142860320905</v>
+        <v>1.064337136130411</v>
       </c>
       <c r="AQ21">
-        <v>1.106935253696562</v>
+        <v>4.881781055849199</v>
       </c>
       <c r="AR21">
-        <v>0.7707080878861294</v>
+        <v>0.9887944371492985</v>
       </c>
       <c r="AS21">
-        <v>0.8742015250004842</v>
+        <v>0.8265619731264273</v>
       </c>
       <c r="AT21">
-        <v>0.3491198177708599</v>
+        <v>1.063035646777699</v>
       </c>
       <c r="AU21">
-        <v>-0.297474409307219</v>
+        <v>0.04522170642344836</v>
       </c>
       <c r="AV21">
-        <v>-0.04760886976447054</v>
+        <v>-0.1645795020818852</v>
       </c>
       <c r="AW21">
-        <v>-0.2385784141923808</v>
+        <v>-0.2058547204034311</v>
       </c>
       <c r="AX21">
         <v>-0.3101476031197148</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.236955483923285</v>
-      </c>
       <c r="AR22">
-        <v>0.9785074308888086</v>
+        <v>1.145281253910801</v>
       </c>
       <c r="AS22">
-        <v>1.642848317545331</v>
+        <v>1.03512654241793</v>
       </c>
       <c r="AT22">
-        <v>0.8893328445352733</v>
+        <v>1.749626206709043</v>
       </c>
       <c r="AU22">
-        <v>0.07171493608653101</v>
+        <v>0.801708530918499</v>
       </c>
       <c r="AV22">
-        <v>0.5568966348730831</v>
+        <v>0.2574142441027938</v>
       </c>
       <c r="AW22">
-        <v>-0.06923086958923186</v>
+        <v>0.2971745009357152</v>
       </c>
       <c r="AX22">
-        <v>0.2126457877301924</v>
+        <v>-0.08160878711860331</v>
       </c>
       <c r="AY22">
-        <v>-0.07765238411295838</v>
+        <v>-0.2675654179851605</v>
       </c>
       <c r="AZ22">
-        <v>0.1245593350339691</v>
+        <v>0.06409464788887931</v>
       </c>
       <c r="BA22">
-        <v>-0.0960403240804597</v>
+        <v>-0.1271672627326748</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.09852971437163127</v>
-      </c>
       <c r="AV23">
-        <v>0.4604116478965636</v>
+        <v>0.2176196802311736</v>
       </c>
       <c r="AW23">
-        <v>-0.09232849901567031</v>
+        <v>0.3363654608556921</v>
       </c>
       <c r="AX23">
-        <v>0.01489902793363473</v>
+        <v>-0.1190973864480194</v>
       </c>
       <c r="AY23">
-        <v>-0.17084471036517</v>
+        <v>-0.151886848314231</v>
       </c>
       <c r="AZ23">
-        <v>0.1722027100061974</v>
+        <v>-0.06354501920059485</v>
       </c>
       <c r="BA23">
-        <v>-0.1059622177528863</v>
+        <v>-0.1556121492501061</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.2458447052877344</v>
-      </c>
       <c r="AZ24">
-        <v>0.05657907649887495</v>
+        <v>-0.1770680765110444</v>
       </c>
       <c r="BA24">
-        <v>-0.1851055482332442</v>
+        <v>-0.1150915274605202</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>2.675192699932971</v>
+      </c>
+      <c r="C3">
+        <v>3.206168778303486</v>
+      </c>
+      <c r="D3">
+        <v>1.087227286828263</v>
+      </c>
+      <c r="E3">
+        <v>-5.478010998490146</v>
+      </c>
+      <c r="F3">
+        <v>-4.774178217057756</v>
+      </c>
+      <c r="G3">
+        <v>-4.760532145915263</v>
+      </c>
+      <c r="H3">
+        <v>-4.64769908574405</v>
+      </c>
+      <c r="I3">
+        <v>-4.79335465120081</v>
+      </c>
+      <c r="J3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="K3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="L3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="M3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="N3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="O3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="P3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Q3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="R3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="S3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="T3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="U3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="V3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="W3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="X3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Y3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="Z3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AA3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AB3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AC3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AD3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AE3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AF3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AG3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AH3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AI3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AK3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AL3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AM3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AN3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AO3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AP3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AQ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AR3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AS3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AT3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AU3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AV3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AW3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AX3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AY3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="AZ3">
+        <v>-5.109987415979145</v>
+      </c>
+      <c r="BA3">
+        <v>-5.109987415979145</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>3.145939949069287</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>3.17221104132186</v>
+        <v>3.009111129072473</v>
       </c>
       <c r="D4">
-        <v>3.193486170118987</v>
+        <v>2.171722775325402</v>
       </c>
       <c r="E4">
-        <v>3.193486170118987</v>
+        <v>-2.013762956649334</v>
       </c>
       <c r="F4">
-        <v>3.164039117354789</v>
+        <v>-0.8523446516643496</v>
       </c>
       <c r="G4">
-        <v>3.164039117354789</v>
+        <v>-0.1091898317121864</v>
       </c>
       <c r="H4">
-        <v>3.164039117354789</v>
+        <v>1.97975191822708</v>
       </c>
       <c r="I4">
-        <v>3.164039117354789</v>
+        <v>2.02543877101049</v>
       </c>
       <c r="J4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="K4">
-        <v>3.164039117354789</v>
+        <v>2.025582195627096</v>
       </c>
       <c r="L4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="M4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="N4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="O4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="P4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Q4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="R4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="S4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="T4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="U4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="V4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="W4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="X4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Y4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="Z4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AB4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AC4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AD4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AE4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AF4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AG4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AH4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AI4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AJ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AK4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AL4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AM4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AN4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AO4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AP4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AQ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AR4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AS4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AT4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AU4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AV4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AW4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AX4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AY4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="AZ4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
       <c r="BA4">
-        <v>3.164039117354789</v>
+        <v>2.253603114136604</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>2.455972543253826</v>
-      </c>
-      <c r="C5">
-        <v>2.740959689118805</v>
-      </c>
-      <c r="D5">
-        <v>1.769627576887389</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.829031788027469</v>
+        <v>-1.113326065866982</v>
       </c>
       <c r="F5">
-        <v>1.813179730027836</v>
+        <v>-1.132064648996955</v>
       </c>
       <c r="G5">
-        <v>1.813179730027836</v>
+        <v>-1.305195642355672</v>
       </c>
       <c r="H5">
-        <v>1.552341155841508</v>
+        <v>1.390521443873438</v>
       </c>
       <c r="I5">
-        <v>1.552341155841508</v>
+        <v>3.371423250978833</v>
       </c>
       <c r="J5">
-        <v>1.552341155841508</v>
+        <v>3.452886745653183</v>
       </c>
       <c r="K5">
-        <v>1.552341155841508</v>
+        <v>3.494665504336103</v>
       </c>
       <c r="L5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="M5">
-        <v>1.552341155841508</v>
+        <v>3.678633086108718</v>
       </c>
       <c r="N5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="O5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="P5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Q5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="R5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="S5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="T5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="U5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="V5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="W5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="X5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Y5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="Z5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AB5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AC5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AD5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AE5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AF5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AG5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AH5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AI5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AJ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AK5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AL5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AM5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AN5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AO5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AP5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AQ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AR5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AS5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AT5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AU5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AV5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AW5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AX5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AY5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="AZ5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
       <c r="BA5">
-        <v>1.552341155841508</v>
+        <v>3.738382206110891</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>2.675192699932949</v>
-      </c>
-      <c r="C6">
-        <v>3.206168778303486</v>
-      </c>
-      <c r="D6">
-        <v>1.087227286828241</v>
-      </c>
-      <c r="E6">
-        <v>-5.478010998490157</v>
-      </c>
-      <c r="F6">
-        <v>-4.774178217057779</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-4.760532145915308</v>
+        <v>-1.434460666746173</v>
       </c>
       <c r="H6">
-        <v>-4.64769908574405</v>
+        <v>-0.6661383078751637</v>
       </c>
       <c r="I6">
-        <v>-4.79335465120082</v>
+        <v>0.806063216063202</v>
       </c>
       <c r="J6">
-        <v>-5.109987415979155</v>
+        <v>2.798447799311043</v>
       </c>
       <c r="K6">
-        <v>-5.109987415979155</v>
+        <v>1.627570629117536</v>
       </c>
       <c r="L6">
-        <v>-5.109987415979155</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="M6">
-        <v>-5.109987415979155</v>
+        <v>1.268854739375569</v>
       </c>
       <c r="N6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="O6">
-        <v>-5.109987415979155</v>
+        <v>1.354224369830748</v>
       </c>
       <c r="P6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Q6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="R6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="S6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="T6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="U6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="V6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="W6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="X6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Y6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="Z6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AB6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AC6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AD6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AE6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AF6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AG6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AH6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AI6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AJ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AK6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AL6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AM6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AN6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AO6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AP6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AQ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AR6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AS6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AT6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AU6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AV6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AW6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AX6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AY6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="AZ6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
       <c r="BA6">
-        <v>-5.109987415979155</v>
+        <v>1.165974434765671</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>3.009111129072495</v>
-      </c>
-      <c r="D7">
-        <v>2.171722775325402</v>
-      </c>
-      <c r="E7">
-        <v>-2.013762956649334</v>
-      </c>
-      <c r="F7">
-        <v>-0.8523446516643385</v>
-      </c>
-      <c r="G7">
-        <v>-0.1091898317121864</v>
-      </c>
-      <c r="H7">
-        <v>1.97975191822708</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.025438771010513</v>
+        <v>0.462906228664739</v>
       </c>
       <c r="J7">
-        <v>2.025582195627118</v>
+        <v>3.107429938393191</v>
       </c>
       <c r="K7">
-        <v>2.025582195627118</v>
+        <v>2.76635821344573</v>
       </c>
       <c r="L7">
-        <v>2.253603114136604</v>
+        <v>2.047133666472267</v>
       </c>
       <c r="M7">
-        <v>2.253603114136604</v>
+        <v>-0.03183655677960751</v>
       </c>
       <c r="N7">
-        <v>2.253603114136604</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="O7">
-        <v>2.253603114136604</v>
+        <v>0.2576645950255863</v>
       </c>
       <c r="P7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Q7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="R7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="S7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="T7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="U7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="V7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="W7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="X7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Y7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="Z7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AB7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AC7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AD7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AE7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AF7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AG7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AH7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AI7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AJ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AK7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AL7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AM7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AN7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AO7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AP7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AQ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AR7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AS7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AT7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AU7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AV7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AW7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AX7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AY7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="AZ7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
       <c r="BA7">
-        <v>2.253603114136604</v>
+        <v>-0.0426719751787874</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-1.113326065866993</v>
-      </c>
-      <c r="F8">
-        <v>-1.132064648996967</v>
-      </c>
-      <c r="G8">
-        <v>-1.305195642355683</v>
-      </c>
-      <c r="H8">
-        <v>1.39052144387346</v>
-      </c>
-      <c r="I8">
-        <v>3.371423250978856</v>
-      </c>
-      <c r="J8">
-        <v>3.452886745653183</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>3.494665504336103</v>
+        <v>2.816123696649364</v>
       </c>
       <c r="L8">
-        <v>3.67863308610874</v>
+        <v>2.593529794423377</v>
       </c>
       <c r="M8">
-        <v>3.67863308610874</v>
+        <v>1.102200073559856</v>
       </c>
       <c r="N8">
-        <v>3.738382206110868</v>
+        <v>1.062273708599726</v>
       </c>
       <c r="O8">
-        <v>3.738382206110868</v>
+        <v>1.812248956008777</v>
       </c>
       <c r="P8">
-        <v>3.738382206110868</v>
+        <v>1.51977456621637</v>
       </c>
       <c r="Q8">
-        <v>3.738382206110868</v>
+        <v>1.523363320150239</v>
       </c>
       <c r="R8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="S8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="T8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="U8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="V8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="W8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="X8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Y8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="Z8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AB8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AC8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AD8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AE8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AF8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AG8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AH8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AI8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AJ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AK8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AL8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AM8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AN8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AO8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AP8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AQ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AR8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AS8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AT8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AU8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AV8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AW8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AX8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AY8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="AZ8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
       <c r="BA8">
-        <v>3.738382206110868</v>
+        <v>1.529758493743438</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-1.434460666746162</v>
-      </c>
-      <c r="H9">
-        <v>-0.6661383078751415</v>
-      </c>
-      <c r="I9">
-        <v>0.8060632160631576</v>
-      </c>
-      <c r="J9">
-        <v>2.798447799311043</v>
-      </c>
-      <c r="K9">
-        <v>1.627570629117536</v>
-      </c>
-      <c r="L9">
-        <v>1.239479831392853</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.268854739375591</v>
+        <v>1.158833360762235</v>
       </c>
       <c r="N9">
-        <v>1.354224369830725</v>
+        <v>0.777320690027139</v>
       </c>
       <c r="O9">
-        <v>1.354224369830725</v>
+        <v>1.209672013646301</v>
       </c>
       <c r="P9">
-        <v>1.165974434765649</v>
+        <v>0.6176326357195894</v>
       </c>
       <c r="Q9">
-        <v>1.165974434765649</v>
+        <v>1.290465392296114</v>
       </c>
       <c r="R9">
-        <v>1.165974434765649</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="S9">
-        <v>1.165974434765649</v>
+        <v>1.477690462805548</v>
       </c>
       <c r="T9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="U9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="V9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="W9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="X9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Y9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="Z9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AB9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AC9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AD9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AE9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AF9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AG9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AH9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AI9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AJ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AK9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AL9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AM9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AN9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AO9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AP9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AQ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AR9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AS9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AT9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AU9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AV9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AW9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AX9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AY9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="AZ9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
       <c r="BA9">
-        <v>1.165974434765649</v>
+        <v>1.358758534900462</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>0.4629062286647612</v>
-      </c>
-      <c r="J10">
-        <v>3.107429938393214</v>
-      </c>
-      <c r="K10">
-        <v>2.766358213445708</v>
-      </c>
-      <c r="L10">
-        <v>2.047133666472267</v>
-      </c>
-      <c r="M10">
-        <v>-0.03183655677961861</v>
-      </c>
-      <c r="N10">
-        <v>0.2379616621361214</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.2576645950256085</v>
+        <v>1.071936572304666</v>
       </c>
       <c r="P10">
-        <v>-0.04267197517882071</v>
+        <v>0.6728901179823277</v>
       </c>
       <c r="Q10">
-        <v>-0.04267197517882071</v>
+        <v>0.9879295308886871</v>
       </c>
       <c r="R10">
-        <v>-0.04267197517882071</v>
+        <v>1.577608035818323</v>
       </c>
       <c r="S10">
-        <v>-0.04267197517882071</v>
+        <v>1.575690123464613</v>
       </c>
       <c r="T10">
-        <v>-0.04267197517882071</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="U10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="V10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="W10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="X10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Y10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="Z10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AB10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AC10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AD10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AE10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AF10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AG10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AH10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AI10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AJ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AK10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AL10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AM10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AN10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AO10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AP10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AQ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AR10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AS10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AT10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AU10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AV10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AW10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AX10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AY10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="AZ10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
       <c r="BA10">
-        <v>-0.04267197517882071</v>
+        <v>1.664905435092301</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>2.816123696649364</v>
-      </c>
-      <c r="L11">
-        <v>2.593529794423399</v>
-      </c>
-      <c r="M11">
-        <v>1.102200073559878</v>
-      </c>
-      <c r="N11">
-        <v>1.062273708599726</v>
-      </c>
-      <c r="O11">
-        <v>1.812248956008733</v>
-      </c>
-      <c r="P11">
-        <v>1.51977456621637</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>1.523363320150262</v>
+        <v>0.9809121457407199</v>
       </c>
       <c r="R11">
-        <v>1.529758493743416</v>
+        <v>1.650647988788689</v>
       </c>
       <c r="S11">
-        <v>1.529758493743416</v>
+        <v>1.643656926428538</v>
       </c>
       <c r="T11">
-        <v>1.529758493743416</v>
+        <v>1.369334405341593</v>
       </c>
       <c r="U11">
-        <v>1.529758493743416</v>
+        <v>1.73823635068906</v>
       </c>
       <c r="V11">
-        <v>1.529758493743416</v>
+        <v>2.161565493242668</v>
       </c>
       <c r="W11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="X11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Y11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="Z11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AB11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AC11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AD11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AE11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AF11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AG11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AH11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AI11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AJ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AK11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AL11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AM11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AN11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AO11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AP11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AQ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AR11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AS11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AT11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AU11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AV11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AW11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AX11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AY11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="AZ11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
       <c r="BA11">
-        <v>1.529758493743416</v>
+        <v>2.145670176886982</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>1.158833360762235</v>
-      </c>
-      <c r="N12">
-        <v>0.7773206900270946</v>
-      </c>
-      <c r="O12">
-        <v>1.209672013646323</v>
-      </c>
-      <c r="P12">
-        <v>0.6176326357196116</v>
-      </c>
-      <c r="Q12">
-        <v>1.290465392296114</v>
-      </c>
-      <c r="R12">
-        <v>1.470039379455756</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>1.477690462805548</v>
+        <v>1.574924135792322</v>
       </c>
       <c r="T12">
-        <v>1.358758534900439</v>
+        <v>1.345986438008739</v>
       </c>
       <c r="U12">
-        <v>1.358758534900439</v>
+        <v>1.765380623247137</v>
       </c>
       <c r="V12">
-        <v>1.358758534900439</v>
+        <v>2.486299099038347</v>
       </c>
       <c r="W12">
-        <v>1.358758534900439</v>
+        <v>2.507284186438108</v>
       </c>
       <c r="X12">
-        <v>1.358758534900439</v>
+        <v>2.337818484846443</v>
       </c>
       <c r="Y12">
-        <v>1.358758534900439</v>
+        <v>2.354760705778181</v>
       </c>
       <c r="Z12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AA12">
-        <v>1.358758534900439</v>
+        <v>2.168907011988197</v>
       </c>
       <c r="AB12">
-        <v>1.358758534900439</v>
+        <v>2.214251681313772</v>
       </c>
       <c r="AC12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AD12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AE12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AF12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AG12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AH12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AI12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AJ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AK12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AL12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AM12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AN12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AO12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AP12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AQ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AR12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AS12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AT12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AU12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AV12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AW12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AX12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AY12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="AZ12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
       <c r="BA12">
-        <v>1.358758534900439</v>
+        <v>1.976124254426503</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>1.071936572304666</v>
-      </c>
-      <c r="P13">
-        <v>0.6728901179823055</v>
-      </c>
-      <c r="Q13">
-        <v>0.9879295308886871</v>
-      </c>
-      <c r="R13">
-        <v>1.577608035818301</v>
-      </c>
-      <c r="S13">
-        <v>1.57569012346459</v>
-      </c>
-      <c r="T13">
-        <v>1.638797242243251</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.664905435092323</v>
+        <v>1.720527067649735</v>
       </c>
       <c r="V13">
-        <v>1.664905435092323</v>
+        <v>2.109877701655938</v>
       </c>
       <c r="W13">
-        <v>1.664905435092323</v>
+        <v>2.112314908467128</v>
       </c>
       <c r="X13">
-        <v>1.664905435092323</v>
+        <v>2.076648015684435</v>
       </c>
       <c r="Y13">
-        <v>1.664905435092323</v>
+        <v>2.107524645430892</v>
       </c>
       <c r="Z13">
-        <v>1.664905435092323</v>
+        <v>1.36203066512679</v>
       </c>
       <c r="AA13">
-        <v>1.664905435092323</v>
+        <v>0.803755999809086</v>
       </c>
       <c r="AB13">
-        <v>1.664905435092323</v>
+        <v>0.8311911554373275</v>
       </c>
       <c r="AC13">
-        <v>1.664905435092323</v>
+        <v>0.7024402883234249</v>
       </c>
       <c r="AD13">
-        <v>1.664905435092323</v>
+        <v>0.6066442151010376</v>
       </c>
       <c r="AE13">
-        <v>1.664905435092323</v>
+        <v>0.6401509985818787</v>
       </c>
       <c r="AF13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AG13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AH13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AI13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AJ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AK13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AL13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AM13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AN13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AO13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AP13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AQ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AR13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AS13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AT13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AU13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AV13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AW13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AX13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AY13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="AZ13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
       <c r="BA13">
-        <v>1.664905435092323</v>
+        <v>0.7060158009350337</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>0.9809121457407421</v>
-      </c>
-      <c r="R14">
-        <v>1.650647988788689</v>
-      </c>
-      <c r="S14">
-        <v>1.643656926428561</v>
-      </c>
-      <c r="T14">
-        <v>1.369334405341616</v>
-      </c>
-      <c r="U14">
-        <v>1.73823635068906</v>
-      </c>
-      <c r="V14">
-        <v>2.161565493242668</v>
-      </c>
-      <c r="W14">
-        <v>2.145670176886982</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.145670176886982</v>
+        <v>2.13529129180221</v>
       </c>
       <c r="Y14">
-        <v>2.145670176886982</v>
+        <v>2.200387468808329</v>
       </c>
       <c r="Z14">
-        <v>2.145670176886982</v>
+        <v>1.86200839535724</v>
       </c>
       <c r="AA14">
-        <v>2.145670176886982</v>
+        <v>1.649904670037827</v>
       </c>
       <c r="AB14">
-        <v>2.145670176886982</v>
+        <v>1.758956425699276</v>
       </c>
       <c r="AC14">
-        <v>2.145670176886982</v>
+        <v>1.302300993836147</v>
       </c>
       <c r="AD14">
-        <v>2.145670176886982</v>
+        <v>0.7878236429522678</v>
       </c>
       <c r="AE14">
-        <v>2.145670176886982</v>
+        <v>0.5367417164559685</v>
       </c>
       <c r="AF14">
-        <v>2.145670176886982</v>
+        <v>-1.538034740964356</v>
       </c>
       <c r="AG14">
-        <v>2.145670176886982</v>
+        <v>-6.356537224117531</v>
       </c>
       <c r="AH14">
-        <v>2.145670176886982</v>
+        <v>-4.207901339433196</v>
       </c>
       <c r="AI14">
-        <v>2.145670176886982</v>
+        <v>-4.227675443964374</v>
       </c>
       <c r="AJ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AK14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AL14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AM14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AN14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AO14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AP14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AQ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AR14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AS14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AT14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AU14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AV14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AW14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AX14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AY14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="AZ14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
       <c r="BA14">
-        <v>2.145670176886982</v>
+        <v>-4.180878843351332</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.574924135792277</v>
-      </c>
-      <c r="T15">
-        <v>1.345986438008739</v>
-      </c>
-      <c r="U15">
-        <v>1.765380623247137</v>
-      </c>
-      <c r="V15">
-        <v>2.486299099038347</v>
-      </c>
-      <c r="W15">
-        <v>2.50728418643813</v>
-      </c>
-      <c r="X15">
-        <v>2.337818484846466</v>
-      </c>
-      <c r="Y15">
-        <v>2.354760705778203</v>
-      </c>
-      <c r="Z15">
-        <v>2.214251681313772</v>
-      </c>
-      <c r="AA15">
-        <v>2.168907011988219</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.214251681313772</v>
+        <v>1.768851416205997</v>
       </c>
       <c r="AC15">
-        <v>1.976124254426526</v>
+        <v>1.531321103069216</v>
       </c>
       <c r="AD15">
-        <v>1.976124254426526</v>
+        <v>1.16804122894969</v>
       </c>
       <c r="AE15">
-        <v>1.976124254426526</v>
+        <v>0.9721240557711175</v>
       </c>
       <c r="AF15">
-        <v>1.976124254426526</v>
+        <v>-0.7351085756681197</v>
       </c>
       <c r="AG15">
-        <v>1.976124254426526</v>
+        <v>-8.821046965146573</v>
       </c>
       <c r="AH15">
-        <v>1.976124254426526</v>
+        <v>-0.1895486537906388</v>
       </c>
       <c r="AI15">
-        <v>1.976124254426526</v>
+        <v>0.4146413258694359</v>
       </c>
       <c r="AJ15">
-        <v>1.976124254426526</v>
+        <v>-0.5490727792360039</v>
       </c>
       <c r="AK15">
-        <v>1.976124254426526</v>
+        <v>0.3172339686200898</v>
       </c>
       <c r="AL15">
-        <v>1.976124254426526</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="AM15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AN15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AO15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AP15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AQ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AR15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AS15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AT15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AU15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AV15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AW15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AX15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AY15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="AZ15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
       <c r="BA15">
-        <v>1.976124254426526</v>
+        <v>1.312484974417294</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.720527067649713</v>
-      </c>
-      <c r="V16">
-        <v>2.109877701655938</v>
-      </c>
-      <c r="W16">
-        <v>2.11231490846715</v>
-      </c>
-      <c r="X16">
-        <v>2.076648015684435</v>
-      </c>
-      <c r="Y16">
-        <v>2.107524645430914</v>
-      </c>
-      <c r="Z16">
-        <v>1.362030665126834</v>
-      </c>
-      <c r="AA16">
-        <v>0.8037559998091082</v>
-      </c>
-      <c r="AB16">
-        <v>0.8311911554373719</v>
-      </c>
-      <c r="AC16">
-        <v>0.7024402883234027</v>
-      </c>
-      <c r="AD16">
-        <v>0.6066442151010376</v>
-      </c>
-      <c r="AE16">
-        <v>0.6401509985818787</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.7060158009350337</v>
+        <v>-0.188446764277661</v>
       </c>
       <c r="AG16">
-        <v>0.7060158009350337</v>
+        <v>-4.168437672387637</v>
       </c>
       <c r="AH16">
-        <v>0.7060158009350337</v>
+        <v>-0.8852951857696523</v>
       </c>
       <c r="AI16">
-        <v>0.7060158009350337</v>
+        <v>-0.8956136585515861</v>
       </c>
       <c r="AJ16">
-        <v>0.7060158009350337</v>
+        <v>-1.780432496308937</v>
       </c>
       <c r="AK16">
-        <v>0.7060158009350337</v>
+        <v>-0.454653018564577</v>
       </c>
       <c r="AL16">
-        <v>0.7060158009350337</v>
+        <v>1.64129126057011</v>
       </c>
       <c r="AM16">
-        <v>0.7060158009350337</v>
+        <v>1.479361440497251</v>
       </c>
       <c r="AN16">
-        <v>0.7060158009350337</v>
+        <v>1.687572871803722</v>
       </c>
       <c r="AO16">
-        <v>0.7060158009350337</v>
+        <v>2.234093617591992</v>
       </c>
       <c r="AP16">
-        <v>0.7060158009350337</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="AQ16">
-        <v>0.7060158009350337</v>
+        <v>2.329145926710607</v>
       </c>
       <c r="AR16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AS16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AT16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AU16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AV16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AW16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AX16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AY16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="AZ16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
       <c r="BA16">
-        <v>0.7060158009350337</v>
+        <v>2.386394320099283</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>2.135291291802233</v>
-      </c>
-      <c r="Y17">
-        <v>2.200387468808307</v>
-      </c>
-      <c r="Z17">
-        <v>1.86200839535724</v>
-      </c>
-      <c r="AA17">
-        <v>1.649904670037805</v>
-      </c>
-      <c r="AB17">
-        <v>1.758956425699298</v>
-      </c>
-      <c r="AC17">
-        <v>1.302300993836147</v>
-      </c>
-      <c r="AD17">
-        <v>0.7878236429522678</v>
-      </c>
-      <c r="AE17">
-        <v>0.5367417164559685</v>
-      </c>
-      <c r="AF17">
-        <v>-1.538034740964334</v>
-      </c>
-      <c r="AG17">
-        <v>-6.356537224117487</v>
-      </c>
-      <c r="AH17">
-        <v>-4.207901339433196</v>
-      </c>
-      <c r="AI17">
-        <v>-4.227675443964363</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.180878843351321</v>
+        <v>-1.415605394723241</v>
       </c>
       <c r="AK17">
-        <v>-4.180878843351321</v>
+        <v>-0.9277185264432997</v>
       </c>
       <c r="AL17">
-        <v>-4.180878843351321</v>
+        <v>-0.2440090421604535</v>
       </c>
       <c r="AM17">
-        <v>-4.180878843351321</v>
+        <v>-0.1782045183430392</v>
       </c>
       <c r="AN17">
-        <v>-4.180878843351321</v>
+        <v>-0.1326041962933178</v>
       </c>
       <c r="AO17">
-        <v>-4.180878843351321</v>
+        <v>0.3633393911697702</v>
       </c>
       <c r="AP17">
-        <v>-4.180878843351321</v>
+        <v>1.217841308475065</v>
       </c>
       <c r="AQ17">
-        <v>-4.180878843351321</v>
+        <v>1.98325800102106</v>
       </c>
       <c r="AR17">
-        <v>-4.180878843351321</v>
+        <v>-0.02880469535951891</v>
       </c>
       <c r="AS17">
-        <v>-4.180878843351321</v>
+        <v>0.01348861154684133</v>
       </c>
       <c r="AT17">
-        <v>-4.180878843351321</v>
+        <v>0.0464415346324687</v>
       </c>
       <c r="AU17">
-        <v>-4.180878843351321</v>
+        <v>0.09917655306328488</v>
       </c>
       <c r="AV17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AW17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AX17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AY17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="AZ17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
       <c r="BA17">
-        <v>-4.180878843351321</v>
+        <v>0.2104414886460626</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.768851416205997</v>
-      </c>
-      <c r="AC18">
-        <v>1.531321103069216</v>
-      </c>
-      <c r="AD18">
-        <v>1.168041228949668</v>
-      </c>
-      <c r="AE18">
-        <v>0.9721240557711397</v>
-      </c>
-      <c r="AF18">
-        <v>-0.7351085756681308</v>
-      </c>
-      <c r="AG18">
-        <v>-8.821046965146561</v>
-      </c>
-      <c r="AH18">
-        <v>-0.1895486537906499</v>
-      </c>
-      <c r="AI18">
-        <v>0.4146413258694137</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.5490727792360373</v>
-      </c>
-      <c r="AK18">
-        <v>0.3172339686200898</v>
-      </c>
-      <c r="AL18">
-        <v>1.099928004397532</v>
-      </c>
-      <c r="AM18">
-        <v>1.312484974417272</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.312484974417272</v>
+        <v>-0.2040066359349391</v>
       </c>
       <c r="AO18">
-        <v>1.312484974417272</v>
+        <v>0.1168661914763724</v>
       </c>
       <c r="AP18">
-        <v>1.312484974417272</v>
+        <v>1.064337136130389</v>
       </c>
       <c r="AQ18">
-        <v>1.312484974417272</v>
+        <v>4.881781055849221</v>
       </c>
       <c r="AR18">
-        <v>1.312484974417272</v>
+        <v>0.9887944371492985</v>
       </c>
       <c r="AS18">
-        <v>1.312484974417272</v>
+        <v>0.8265619731264273</v>
       </c>
       <c r="AT18">
-        <v>1.312484974417272</v>
+        <v>1.063035646777677</v>
       </c>
       <c r="AU18">
-        <v>1.312484974417272</v>
+        <v>0.04522170642344836</v>
       </c>
       <c r="AV18">
-        <v>1.312484974417272</v>
+        <v>-0.1645795020818963</v>
       </c>
       <c r="AW18">
-        <v>1.312484974417272</v>
+        <v>-0.2058547204034422</v>
       </c>
       <c r="AX18">
-        <v>1.312484974417272</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="AY18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="AZ18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
       <c r="BA18">
-        <v>1.312484974417272</v>
+        <v>-0.3095793941792935</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.1884467642776499</v>
-      </c>
-      <c r="AG19">
-        <v>-4.168437672387615</v>
-      </c>
-      <c r="AH19">
-        <v>-0.8852951857696523</v>
-      </c>
-      <c r="AI19">
-        <v>-0.8956136585516083</v>
-      </c>
-      <c r="AJ19">
-        <v>-1.780432496308937</v>
-      </c>
-      <c r="AK19">
-        <v>-0.4546530185646103</v>
-      </c>
-      <c r="AL19">
-        <v>1.64129126057011</v>
-      </c>
-      <c r="AM19">
-        <v>1.479361440497251</v>
-      </c>
-      <c r="AN19">
-        <v>1.6875728718037</v>
-      </c>
-      <c r="AO19">
-        <v>2.23409361759197</v>
-      </c>
-      <c r="AP19">
-        <v>2.310042359896225</v>
-      </c>
-      <c r="AQ19">
-        <v>2.329145926710607</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>2.386394320099239</v>
+        <v>1.145281253910779</v>
       </c>
       <c r="AS19">
-        <v>2.386394320099239</v>
+        <v>1.03512654241793</v>
       </c>
       <c r="AT19">
-        <v>2.386394320099239</v>
+        <v>1.749626206709065</v>
       </c>
       <c r="AU19">
-        <v>2.386394320099239</v>
+        <v>0.8017085309184768</v>
       </c>
       <c r="AV19">
-        <v>2.386394320099239</v>
+        <v>0.2574142441027716</v>
       </c>
       <c r="AW19">
-        <v>2.386394320099239</v>
+        <v>0.2971745009357374</v>
       </c>
       <c r="AX19">
-        <v>2.386394320099239</v>
+        <v>-0.08160878711860331</v>
       </c>
       <c r="AY19">
-        <v>2.386394320099239</v>
+        <v>-0.2675654179851272</v>
       </c>
       <c r="AZ19">
-        <v>2.386394320099239</v>
+        <v>0.06409464788890151</v>
       </c>
       <c r="BA19">
-        <v>2.386394320099239</v>
+        <v>-0.1271672627326415</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>-1.415605394723229</v>
-      </c>
-      <c r="AK20">
-        <v>-0.9277185264433219</v>
-      </c>
-      <c r="AL20">
-        <v>-0.2440090421604091</v>
-      </c>
-      <c r="AM20">
-        <v>-0.1782045183430392</v>
-      </c>
-      <c r="AN20">
-        <v>-0.1326041962933178</v>
-      </c>
-      <c r="AO20">
-        <v>0.3633393911697702</v>
-      </c>
-      <c r="AP20">
-        <v>1.217841308475065</v>
-      </c>
-      <c r="AQ20">
-        <v>1.98325800102106</v>
-      </c>
-      <c r="AR20">
-        <v>-0.0288046953595078</v>
-      </c>
-      <c r="AS20">
-        <v>0.01348861154684133</v>
-      </c>
-      <c r="AT20">
-        <v>0.0464415346324687</v>
-      </c>
-      <c r="AU20">
-        <v>0.09917655306330708</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.2104414886460626</v>
+        <v>0.2176196802311958</v>
       </c>
       <c r="AW20">
-        <v>0.2104414886460626</v>
+        <v>0.3363654608556921</v>
       </c>
       <c r="AX20">
-        <v>0.2104414886460626</v>
+        <v>-0.1190973864480305</v>
       </c>
       <c r="AY20">
-        <v>0.2104414886460626</v>
+        <v>-0.1518868483142199</v>
       </c>
       <c r="AZ20">
-        <v>0.2104414886460626</v>
+        <v>-0.06354501920062816</v>
       </c>
       <c r="BA20">
-        <v>0.2104414886460626</v>
+        <v>-0.1556121492501283</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-0.204006635934928</v>
-      </c>
-      <c r="AO21">
-        <v>0.1168661914763502</v>
-      </c>
-      <c r="AP21">
-        <v>1.064337136130411</v>
-      </c>
-      <c r="AQ21">
-        <v>4.881781055849199</v>
-      </c>
-      <c r="AR21">
-        <v>0.9887944371492985</v>
-      </c>
-      <c r="AS21">
-        <v>0.8265619731264273</v>
-      </c>
-      <c r="AT21">
-        <v>1.063035646777699</v>
-      </c>
-      <c r="AU21">
-        <v>0.04522170642344836</v>
-      </c>
-      <c r="AV21">
-        <v>-0.1645795020818852</v>
-      </c>
-      <c r="AW21">
-        <v>-0.2058547204034311</v>
-      </c>
-      <c r="AX21">
-        <v>-0.3101476031197148</v>
-      </c>
-      <c r="AY21">
-        <v>-0.3095793941792713</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-0.3095793941792713</v>
+        <v>-0.1770680765110222</v>
       </c>
       <c r="BA21">
-        <v>-0.3095793941792713</v>
+        <v>-0.1150915274605202</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.145281253910801</v>
-      </c>
-      <c r="AS22">
-        <v>1.03512654241793</v>
-      </c>
-      <c r="AT22">
-        <v>1.749626206709043</v>
-      </c>
-      <c r="AU22">
-        <v>0.801708530918499</v>
-      </c>
-      <c r="AV22">
-        <v>0.2574142441027938</v>
-      </c>
-      <c r="AW22">
-        <v>0.2971745009357152</v>
-      </c>
-      <c r="AX22">
-        <v>-0.08160878711860331</v>
-      </c>
-      <c r="AY22">
-        <v>-0.2675654179851605</v>
-      </c>
-      <c r="AZ22">
-        <v>0.06409464788887931</v>
-      </c>
-      <c r="BA22">
-        <v>-0.1271672627326748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.2176196802311736</v>
-      </c>
-      <c r="AW23">
-        <v>0.3363654608556921</v>
-      </c>
-      <c r="AX23">
-        <v>-0.1190973864480194</v>
-      </c>
-      <c r="AY23">
-        <v>-0.151886848314231</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.06354501920059485</v>
-      </c>
-      <c r="BA23">
-        <v>-0.1556121492501061</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.1770680765110444</v>
-      </c>
-      <c r="BA24">
-        <v>-0.1150915274605202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_GDP_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-5.109987415979145</v>
       </c>
+      <c r="BB3">
+        <v>-5.109987415979145</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.253603114136604</v>
       </c>
+      <c r="BB4">
+        <v>2.253603114136604</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>3.738382206110891</v>
       </c>
+      <c r="BB5">
+        <v>3.738382206110891</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>1.165974434765671</v>
       </c>
+      <c r="BB6">
+        <v>1.165974434765671</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.0426719751787874</v>
       </c>
+      <c r="BB7">
+        <v>-0.0426719751787874</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>1.529758493743438</v>
       </c>
+      <c r="BB8">
+        <v>1.529758493743438</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>1.358758534900462</v>
       </c>
+      <c r="BB9">
+        <v>1.358758534900462</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.664905435092301</v>
       </c>
+      <c r="BB10">
+        <v>1.664905435092301</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.145670176886982</v>
       </c>
+      <c r="BB11">
+        <v>2.145670176886982</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>1.976124254426503</v>
       </c>
+      <c r="BB12">
+        <v>1.976124254426503</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>0.7060158009350337</v>
       </c>
+      <c r="BB13">
+        <v>0.7060158009350337</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-4.180878843351332</v>
       </c>
+      <c r="BB14">
+        <v>-4.180878843351332</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>1.312484974417294</v>
       </c>
+      <c r="BB15">
+        <v>1.312484974417294</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>2.386394320099283</v>
       </c>
+      <c r="BB16">
+        <v>2.386394320099283</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>0.2104414886460626</v>
       </c>
+      <c r="BB17">
+        <v>0.2104414886460626</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-0.3095793941792935</v>
       </c>
+      <c r="BB18">
+        <v>-0.3095793941792935</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-0.1271672627326415</v>
       </c>
+      <c r="BB19">
+        <v>-0.08656168856399082</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-0.1556121492501283</v>
       </c>
+      <c r="BB20">
+        <v>-0.1516437243033186</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-0.1150915274605202</v>
       </c>
+      <c r="BB21">
+        <v>-0.1967561196116963</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
